--- a/public/uploads/Results_Template.xlsx
+++ b/public/uploads/Results_Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10315"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanyammahajan/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\sms\public\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C6D3716-BA6C-164D-A83B-F39BC1013058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A926B8E0-A8D1-452A-88C4-DCDCA33CD8C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="760" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,46 +22,46 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
-    <t>StudentID</t>
-  </si>
-  <si>
-    <t>SubjectCode</t>
-  </si>
-  <si>
-    <t>SessionalExam</t>
-  </si>
-  <si>
-    <t>EndTerm</t>
-  </si>
-  <si>
-    <t>OverallMark</t>
-  </si>
-  <si>
     <t>Grade</t>
   </si>
   <si>
-    <t>2023-104</t>
-  </si>
-  <si>
-    <t>2023-15</t>
-  </si>
-  <si>
-    <t>2023-115</t>
-  </si>
-  <si>
     <t>DAM-101</t>
   </si>
   <si>
-    <t>DAM-102</t>
-  </si>
-  <si>
-    <t>DAM-103</t>
-  </si>
-  <si>
     <t>C+</t>
   </si>
   <si>
     <t>B+</t>
+  </si>
+  <si>
+    <t>Roll No</t>
+  </si>
+  <si>
+    <t>Subject Code</t>
+  </si>
+  <si>
+    <t>Sessional Exam</t>
+  </si>
+  <si>
+    <t>End Term</t>
+  </si>
+  <si>
+    <t>Overall Mark</t>
+  </si>
+  <si>
+    <t>2023-133</t>
+  </si>
+  <si>
+    <t>2023-156</t>
+  </si>
+  <si>
+    <t>2023-122</t>
+  </si>
+  <si>
+    <t>DAP-102</t>
+  </si>
+  <si>
+    <t>DAC-103</t>
   </si>
 </sst>
 </file>
@@ -438,37 +438,45 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" customWidth="1"/>
+    <col min="5" max="5" width="12.21875" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
       </c>
       <c r="C2">
         <v>20</v>
@@ -480,15 +488,15 @@
         <v>70</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3">
         <v>18</v>
@@ -500,15 +508,15 @@
         <v>63</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C4">
         <v>22</v>
@@ -520,7 +528,7 @@
         <v>70</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/public/uploads/Results_Template.xlsx
+++ b/public/uploads/Results_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\sms\public\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A926B8E0-A8D1-452A-88C4-DCDCA33CD8C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2E2BD09-5686-450A-83B1-2665D85D2932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>Grade</t>
   </si>
@@ -56,12 +56,6 @@
   </si>
   <si>
     <t>2023-122</t>
-  </si>
-  <si>
-    <t>DAP-102</t>
-  </si>
-  <si>
-    <t>DAC-103</t>
   </si>
 </sst>
 </file>
@@ -438,7 +432,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -496,7 +490,7 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C3">
         <v>18</v>
@@ -516,7 +510,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C4">
         <v>22</v>

--- a/public/uploads/Results_Template.xlsx
+++ b/public/uploads/Results_Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10315"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\sms\public\uploads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanyammahajan/Documents/GitHub/ISTC-SMS-New/public/uploads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2E2BD09-5686-450A-83B1-2665D85D2932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89F2813E-E6A3-7045-B670-EC1B7AD1A5C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="80" yWindow="760" windowWidth="23260" windowHeight="12460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,9 +25,6 @@
     <t>Grade</t>
   </si>
   <si>
-    <t>DAM-101</t>
-  </si>
-  <si>
     <t>C+</t>
   </si>
   <si>
@@ -56,6 +53,9 @@
   </si>
   <si>
     <t>2023-122</t>
+  </si>
+  <si>
+    <t>DME-105</t>
   </si>
 </sst>
 </file>
@@ -432,45 +432,45 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5546875" customWidth="1"/>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" customWidth="1"/>
     <col min="3" max="3" width="13.33203125" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" customWidth="1"/>
-    <col min="5" max="5" width="12.21875" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" customWidth="1"/>
     <col min="6" max="6" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C2">
         <v>20</v>
@@ -482,15 +482,15 @@
         <v>70</v>
       </c>
       <c r="F2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C3">
         <v>18</v>
@@ -502,15 +502,15 @@
         <v>63</v>
       </c>
       <c r="F3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
         <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1</v>
       </c>
       <c r="C4">
         <v>22</v>
@@ -522,7 +522,7 @@
         <v>70</v>
       </c>
       <c r="F4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/public/uploads/Results_Template.xlsx
+++ b/public/uploads/Results_Template.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10315"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanyammahajan/Documents/GitHub/ISTC-SMS-New/public/uploads/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89F2813E-E6A3-7045-B670-EC1B7AD1A5C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="760" windowWidth="23260" windowHeight="12460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="75" yWindow="765" windowWidth="23265" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="19">
   <si>
     <t>Grade</t>
   </si>
@@ -56,13 +50,34 @@
   </si>
   <si>
     <t>DME-105</t>
+  </si>
+  <si>
+    <t>2023-121</t>
+  </si>
+  <si>
+    <t>2023-154</t>
+  </si>
+  <si>
+    <t>2023-135</t>
+  </si>
+  <si>
+    <t>2023-097</t>
+  </si>
+  <si>
+    <t>2023-106</t>
+  </si>
+  <si>
+    <t>2023-171</t>
+  </si>
+  <si>
+    <t>A+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,9 +158,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -183,7 +198,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -217,7 +232,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -252,10 +266,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -428,24 +441,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -465,7 +478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -479,13 +492,14 @@
         <v>50</v>
       </c>
       <c r="E2">
+        <f>C2+D2</f>
         <v>70</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -499,13 +513,14 @@
         <v>45</v>
       </c>
       <c r="E3">
+        <f t="shared" ref="E3:E10" si="0">C3+D3</f>
         <v>63</v>
       </c>
       <c r="F3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -519,9 +534,136 @@
         <v>48</v>
       </c>
       <c r="E4">
+        <f t="shared" si="0"/>
         <v>70</v>
       </c>
       <c r="F4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>22</v>
+      </c>
+      <c r="D5">
+        <v>50</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="F5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>23</v>
+      </c>
+      <c r="D6">
+        <v>60</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>83</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>24</v>
+      </c>
+      <c r="D7">
+        <v>70</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>94</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <v>25</v>
+      </c>
+      <c r="D8">
+        <v>60</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+      <c r="F8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>26</v>
+      </c>
+      <c r="D9">
+        <v>58</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>84</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10">
+        <v>27</v>
+      </c>
+      <c r="D10">
+        <v>52</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>79</v>
+      </c>
+      <c r="F10" t="s">
         <v>2</v>
       </c>
     </row>
